--- a/src/segment/results/chunkSizeVsTiming/cpu-gpu-imrecon-chunk-times.xlsx
+++ b/src/segment/results/chunkSizeVsTiming/cpu-gpu-imrecon-chunk-times.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="147" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8145" tabRatio="351" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DataPilot_Sheet1_1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="DataPilot_Sheet1_3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataPilot_Sheet1_1" sheetId="2" r:id="rId2"/>
+    <sheet name="DataPilot_Sheet1_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -64,61 +64,59 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <name val="Lohit Hindi"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,367 +127,367 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="27">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="21">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="21">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="11" fillId="0" fontId="5" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="13" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="15" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="16" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="17" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="11" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="5" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="20" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="21" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="22" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="23" fillId="0" fontId="5" numFmtId="164" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DataPilot Corner" xfId="22"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DataPilot Field" xfId="24"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DataPilot Category" xfId="15"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DataPilot Title" xfId="15"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DataPilot Value" xfId="15"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DataPilot Result" xfId="15"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -548,17 +546,32 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="004B1F6F"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -568,17 +581,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1300"/>
+              <a:rPr lang="en-US" sz="1300" b="1"/>
               <a:t>Chunk size vs Running time</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -588,15 +605,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v> -   </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -604,11 +618,11 @@
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -628,9 +642,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -649,14 +660,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$6:$N$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>616041</c:v>
@@ -676,9 +687,6 @@
                 <c:pt idx="5">
                   <c:v>1384022</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>15861501</c:v>
                 </c:pt>
@@ -700,6 +708,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -710,27 +719,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v> 1.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -750,9 +756,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -771,14 +774,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$7:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>643968</c:v>
@@ -795,12 +798,6 @@
                 <c:pt idx="4">
                   <c:v>1217430</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>16252241</c:v>
                 </c:pt>
@@ -815,13 +812,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1079372</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -832,27 +827,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v> 2.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -872,9 +864,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -893,14 +882,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$8:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>669240</c:v>
@@ -917,12 +906,6 @@
                 <c:pt idx="4">
                   <c:v>1213247</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>16459267</c:v>
                 </c:pt>
@@ -937,13 +920,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1076772</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -954,27 +935,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v> 4.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -994,9 +972,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1015,14 +990,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$9:$N$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>713565</c:v>
@@ -1039,12 +1014,6 @@
                 <c:pt idx="4">
                   <c:v>1216986</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>16759109</c:v>
                 </c:pt>
@@ -1059,13 +1028,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1076178</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1076,27 +1043,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v> 8.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="7E0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -1116,9 +1080,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1137,14 +1098,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$10:$N$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>816823</c:v>
@@ -1161,12 +1122,6 @@
                 <c:pt idx="4">
                   <c:v>1219546</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>16896853</c:v>
                 </c:pt>
@@ -1181,13 +1136,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1088909</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1198,27 +1151,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v> 16.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="83CAFF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -1238,9 +1188,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1259,14 +1206,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$11:$N$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1059084</c:v>
@@ -1283,12 +1230,6 @@
                 <c:pt idx="4">
                   <c:v>1229233</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>17976485</c:v>
                 </c:pt>
@@ -1303,13 +1244,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1080472</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1320,15 +1259,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v> 32.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="314004"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="314004"/>
@@ -1336,11 +1272,11 @@
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -1360,9 +1296,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1381,14 +1314,14 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$12:$N$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1762134</c:v>
@@ -1405,12 +1338,6 @@
                 <c:pt idx="4">
                   <c:v>1241427</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>21253109</c:v>
                 </c:pt>
@@ -1425,13 +1352,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1089107</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1442,27 +1367,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v> 64.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="aecf00"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="AECF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -1482,9 +1404,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1503,18 +1422,15 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$13:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>2311832</c:v>
                 </c:pt>
@@ -1527,15 +1443,6 @@
                 <c:pt idx="4">
                   <c:v>1269569</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>10185216</c:v>
                 </c:pt>
@@ -1547,13 +1454,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1131626</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1564,27 +1469,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v> 128.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4b1f6f"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="4B1F6F"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -1604,9 +1506,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1625,21 +1524,15 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$14:$N$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>2510488</c:v>
                 </c:pt>
@@ -1649,18 +1542,6 @@
                 <c:pt idx="4">
                   <c:v>1342187</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>5959799</c:v>
                 </c:pt>
@@ -1669,13 +1550,11 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1249106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1686,27 +1565,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v> 256.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff950e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="FF950E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$5:$N$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
@@ -1726,9 +1602,6 @@
                 <c:pt idx="5">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
@@ -1747,69 +1620,53 @@
                 <c:pt idx="12">
                   <c:v>4096</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_1!$B$15:$N$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>2232056</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1538509</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>3065228</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1479130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="45558065"/>
-        <c:axId val="10812272"/>
+        <c:smooth val="0"/>
+        <c:axId val="75735808"/>
+        <c:axId val="75746304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45558065"/>
+        <c:axId val="75735808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -1819,39 +1676,45 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr lang="en-US" sz="900" b="1"/>
                   <a:t>chunksize in pixels. Left is CPU, right is GPU</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
-        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10812272"/>
+        <c:crossAx val="75746304"/>
         <c:crossesAt val="1"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10812272"/>
+        <c:axId val="75746304"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:logBase val="10"/>
           <c:min val="100000"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -1861,64 +1724,1197 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr lang="en-US" sz="900" b="1"/>
                   <a:t>running time in us.</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45558065"/>
+        <c:crossAx val="75735808"/>
         <c:crossesAt val="1"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>616041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>922925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1131070</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1249526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1216664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1384022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15861501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6170783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3560870</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2071270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1098596</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>938463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1139090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1253314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1217430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16252241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6558265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3686919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2177960</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1079372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>669240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1140131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1254168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1213247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16459267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6636568</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3710575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2179308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1076772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>713565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>984417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1158259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1258607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1216986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16759109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6649627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3730523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2095411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1076178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1041188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1195923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1276637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1219546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16896853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6748627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3664806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2086004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1088909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1059084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1211049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1299285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1229233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17976485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7506634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3803559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2117708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1080472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1762134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1555540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1475183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1331121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1241427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21253109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8553396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4134594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2132215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1089107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2311832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1761397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1433157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1269569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10185216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4803898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2418541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1131626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2510488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1666407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1342187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5959799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2576031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1249106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2232056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1538509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3065228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1479130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>616041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>922925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1131070</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1249526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1216664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1384022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15861501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6170783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3560870</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2071270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1098596</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>938463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1139090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1253314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1217430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16252241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6558265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3686919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2177960</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1079372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>669240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1140131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1254168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1213247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16459267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6636568</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3710575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2179308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1076772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>713565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>984417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1158259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1258607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1216986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16759109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6649627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3730523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2095411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1076178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1041188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1195923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1276637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1219546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16896853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6748627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3664806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2086004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1088909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1059084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1211049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1299285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1229233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17976485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7506634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3803559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2117708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1080472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1762134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1555540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1475183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1331121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1241427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21253109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8553396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4134594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2132215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1089107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2311832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1761397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1433157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1269569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10185216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4803898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2418541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1131626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2510488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1666407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1342187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5959799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2576031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1249106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DataPilot_Sheet1_1!$A$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2232056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1538509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3065228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1479130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="121772288"/>
+        <c:axId val="122122240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121772288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122122240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122122240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121772288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -1928,17 +2924,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1300"/>
+              <a:rPr lang="en-US" sz="1300" b="1"/>
               <a:t>Padding vs Running Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1948,15 +2948,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v> 128.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1964,11 +2961,11 @@
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$5:$V$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2000,9 +2997,6 @@
                 <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2033,14 +3027,14 @@
                 <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$6:$V$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>616041</c:v>
@@ -2063,18 +3057,6 @@
                 <c:pt idx="6">
                   <c:v>1762134</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>15861501</c:v>
                 </c:pt>
@@ -2095,19 +3077,11 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>21253109</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2118,27 +3092,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v> 256.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$5:$V$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2170,9 +3141,6 @@
                 <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2203,14 +3171,14 @@
                 <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$7:$V$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>922925</c:v>
@@ -2236,15 +3204,6 @@
                 <c:pt idx="7">
                   <c:v>2311832</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>6170783</c:v>
                 </c:pt>
@@ -2268,16 +3227,11 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>10185216</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2288,27 +3242,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512</c:v>
+                  <c:v> 512.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$5:$V$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2340,9 +3291,6 @@
                 <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2373,14 +3321,14 @@
                 <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$8:$V$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1131070</c:v>
@@ -2409,12 +3357,6 @@
                 <c:pt idx="8">
                   <c:v>2510488</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>3560870</c:v>
                 </c:pt>
@@ -2441,13 +3383,11 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5959799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2458,27 +3398,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1024</c:v>
+                  <c:v> 1,024.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$5:$V$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2510,9 +3447,6 @@
                 <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2543,14 +3477,14 @@
                 <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$9:$V$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1249526</c:v>
@@ -2582,9 +3516,6 @@
                 <c:pt idx="9">
                   <c:v>2232056</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>2071270</c:v>
                 </c:pt>
@@ -2618,6 +3549,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2628,27 +3560,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2048</c:v>
+                  <c:v> 2,048.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="7E0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$5:$V$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2680,9 +3609,6 @@
                 <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2713,14 +3639,14 @@
                 <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$10:$V$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1216664</c:v>
@@ -2752,9 +3678,6 @@
                 <c:pt idx="9">
                   <c:v>1538509</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>1098596</c:v>
                 </c:pt>
@@ -2788,6 +3711,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2798,15 +3722,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4096</c:v>
+                  <c:v> 4,096.00 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -2814,11 +3735,11 @@
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$5:$V$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2850,9 +3771,6 @@
                 <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2883,93 +3801,47 @@
                 <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataPilot_Sheet1_3!$B$11:$V$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1384022</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>804370</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>NaN</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78691223"/>
-        <c:axId val="14782529"/>
+        <c:smooth val="0"/>
+        <c:axId val="51791744"/>
+        <c:axId val="51798016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78691223"/>
+        <c:axId val="51791744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -2979,39 +3851,45 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr lang="en-US" sz="900" b="1"/>
                   <a:t>border width in pixels.  left half is CPU, right half is GPU</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
-        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14782529"/>
+        <c:crossAx val="51798016"/>
         <c:crossesAt val="1"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14782529"/>
+        <c:axId val="51798016"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:logBase val="10"/>
           <c:min val="100000"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -3021,60 +3899,55 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900"/>
+                  <a:rPr lang="en-US" sz="900" b="1"/>
                   <a:t>us</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78691223"/>
+        <c:crossAx val="51791744"/>
         <c:crossesAt val="1"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -3088,14 +3961,14 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8208360" y="685800"/>
-        <a:ext cx="8971560" cy="7535160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3105,11 +3978,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3123,14 +4026,14 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="39600" y="1819440"/>
-        <a:ext cx="10739160" cy="6744600"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3143,2126 +4046,2406 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="11.6745098039216"/>
+    <col min="1" max="1" width="13.42578125"/>
+    <col min="2" max="2" width="14.42578125"/>
+    <col min="3" max="3" width="14.140625"/>
+    <col min="4" max="4" width="12.5703125"/>
+    <col min="5" max="5" width="12.28515625"/>
+    <col min="6" max="6" width="12.5703125"/>
+    <col min="7" max="7" width="14.7109375"/>
+    <col min="8" max="257" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>128</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>616041</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>256</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>922925</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>512</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>1131070</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>1024</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>1249526</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>2048</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>1216664</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>4096</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>1384022</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>128</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>643968</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>256</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>938463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>512</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>1139090</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>1024</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>1253314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>2048</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>1217430</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>128</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>669240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>256</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>958972</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>512</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>1140131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>1024</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>1254168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>2048</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>1213247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
         <v>128</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>713565</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
         <v>256</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>984417</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <v>512</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>1158259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>1024</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>1258607</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>2048</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>1216986</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>128</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>816823</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
         <v>256</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
         <v>1041188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
         <v>512</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
         <v>1195923</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
         <v>1024</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
         <v>1276637</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <v>2048</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
         <v>1219546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>128</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>16</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>1059084</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>256</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>16</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>1211049</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
         <v>512</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>16</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>1250495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
         <v>1024</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>16</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>1299285</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
         <v>2048</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>16</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>1229233</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
         <v>128</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>1762134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
         <v>256</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34">
         <v>32</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34">
         <v>1555540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
         <v>512</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>32</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35">
         <v>1475183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
         <v>1024</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>32</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>1331121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>2048</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>32</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>1241427</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
         <v>256</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38">
         <v>64</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38">
         <v>2311832</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
         <v>512</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>64</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39">
         <v>1761397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
         <v>1024</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40">
         <v>64</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40">
         <v>1433157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
         <v>2048</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41">
         <v>64</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41">
         <v>1269569</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
         <v>512</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42">
         <v>128</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42">
         <v>2510488</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E43" s="0" t="n">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
         <v>1024</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43">
         <v>128</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43">
         <v>1666407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" s="0" t="n">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
         <v>2048</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>128</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44">
         <v>1342187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E45" s="0" t="n">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
         <v>1024</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>256</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45">
         <v>2232056</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E46" s="0" t="n">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
         <v>2048</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46">
         <v>256</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46">
         <v>1538509</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
         <v>128</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47">
         <v>15861501</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" s="0" t="n">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
         <v>256</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48">
         <v>6170783</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
         <v>512</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49">
         <v>3560870</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E50" s="0" t="n">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
         <v>1024</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50">
         <v>2071270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
         <v>2048</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51">
         <v>1098596</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
         <v>4096</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52">
         <v>804370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E53" s="0" t="n">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
         <v>128</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>16252241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
         <v>256</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54">
         <v>6558265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
         <v>512</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>3686919</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E56" s="0" t="n">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
         <v>1024</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56">
         <v>2177960</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
         <v>2048</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57">
         <v>1079372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E58" s="0" t="n">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
         <v>128</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58">
         <v>2</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58">
         <v>16459267</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>256</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59">
         <v>2</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59">
         <v>6636568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E60" s="0" t="n">
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
         <v>512</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60">
         <v>3710575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E61" s="0" t="n">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
         <v>1024</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61">
         <v>2</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61">
         <v>2179308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E62" s="0" t="n">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
         <v>2048</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62">
         <v>2</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62">
         <v>1076772</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E63" s="0" t="n">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
         <v>128</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63">
         <v>4</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63">
         <v>16759109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E64" s="0" t="n">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
         <v>256</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64">
         <v>4</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>6649627</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
         <v>512</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65">
         <v>3730523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E66" s="0" t="n">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
         <v>1024</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66">
         <v>2095411</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E67" s="0" t="n">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
         <v>2048</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>4</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>1076178</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E68" s="0" t="n">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
         <v>128</v>
       </c>
-      <c r="F68" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G68" s="0" t="n">
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
         <v>16896853</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" s="0" t="n">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
         <v>256</v>
       </c>
-      <c r="F69" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G69" s="0" t="n">
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
         <v>6748627</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E70" s="0" t="n">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
         <v>512</v>
       </c>
-      <c r="F70" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G70" s="0" t="n">
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70">
         <v>3664806</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
         <v>1024</v>
       </c>
-      <c r="F71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G71" s="0" t="n">
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
         <v>2086004</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
         <v>2048</v>
       </c>
-      <c r="F72" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G72" s="0" t="n">
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72">
         <v>1088909</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E73" s="0" t="n">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
         <v>128</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73">
         <v>16</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73">
         <v>17976485</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E74" s="0" t="n">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
         <v>256</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74">
         <v>16</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74">
         <v>7506634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E75" s="0" t="n">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
         <v>512</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75">
         <v>16</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75">
         <v>3803559</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E76" s="0" t="n">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
         <v>1024</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76">
         <v>16</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76">
         <v>2117708</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E77" s="0" t="n">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
         <v>2048</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77">
         <v>16</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77">
         <v>1080472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E78" s="0" t="n">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
         <v>128</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78">
         <v>32</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78">
         <v>21253109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" s="0" t="n">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
         <v>256</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79">
         <v>32</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79">
         <v>8553396</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" s="0" t="n">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
         <v>512</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80">
         <v>32</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80">
         <v>4134594</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
         <v>1024</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81">
         <v>32</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81">
         <v>2132215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
         <v>2048</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82">
         <v>32</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82">
         <v>1089107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" s="0" t="n">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
         <v>256</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83">
         <v>64</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83">
         <v>10185216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E84" s="0" t="n">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84">
         <v>512</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84">
         <v>64</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84">
         <v>4803898</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" s="0" t="n">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85">
         <v>1024</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85">
         <v>64</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85">
         <v>2418541</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" s="0" t="n">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86">
         <v>2048</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86">
         <v>64</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86">
         <v>1131626</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E87" s="0" t="n">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
         <v>512</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87">
         <v>128</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87">
         <v>5959799</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E88" s="0" t="n">
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
         <v>1024</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88">
         <v>128</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88">
         <v>2576031</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E89" s="0" t="n">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89">
         <v>2048</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89">
         <v>128</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89">
         <v>1249106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E90" s="0" t="n">
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>8</v>
+      </c>
+      <c r="E90">
         <v>1024</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90">
         <v>256</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90">
         <v>3065228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E91" s="0" t="n">
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>8</v>
+      </c>
+      <c r="E91">
         <v>2048</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91">
         <v>256</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91">
         <v>1479130</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5270,26 +6453,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="N15" activeCellId="0" pane="topLeft" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
+    <col min="1" max="257" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5312,7 +6493,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -5335,421 +6516,421 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="11">
         <v>128</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="12">
         <v>256</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="12">
         <v>512</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="12">
         <v>1024</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="12">
         <v>2048</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="12">
         <v>4096</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="12">
         <v>128</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="12">
         <v>256</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="12">
         <v>512</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="12">
         <v>1024</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="12">
         <v>2048</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="12">
         <v>4096</v>
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="14" t="n">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="15">
         <v>616041</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="16">
         <v>922925</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="16">
         <v>1131070</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="16">
         <v>1249526</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="16">
         <v>1216664</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="17">
         <v>1384022</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="18">
         <v>15861501</v>
       </c>
-      <c r="J6" s="18" t="n">
+      <c r="J6" s="18">
         <v>6170783</v>
       </c>
-      <c r="K6" s="18" t="n">
+      <c r="K6" s="18">
         <v>3560870</v>
       </c>
-      <c r="L6" s="18" t="n">
+      <c r="L6" s="18">
         <v>2071270</v>
       </c>
-      <c r="M6" s="18" t="n">
+      <c r="M6" s="18">
         <v>1098596</v>
       </c>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="18">
         <v>804370</v>
       </c>
-      <c r="O6" s="19" t="n">
+      <c r="O6" s="19">
         <v>36087638</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="20" t="n">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>643968</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="18">
         <v>938463</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="18">
         <v>1139090</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="18">
         <v>1253314</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="18">
         <v>1217430</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="18" t="n">
+      <c r="I7" s="18">
         <v>16252241</v>
       </c>
-      <c r="J7" s="18" t="n">
+      <c r="J7" s="18">
         <v>6558265</v>
       </c>
-      <c r="K7" s="18" t="n">
+      <c r="K7" s="18">
         <v>3686919</v>
       </c>
-      <c r="L7" s="18" t="n">
+      <c r="L7" s="18">
         <v>2177960</v>
       </c>
-      <c r="M7" s="18" t="n">
+      <c r="M7" s="18">
         <v>1079372</v>
       </c>
       <c r="N7" s="18"/>
-      <c r="O7" s="23" t="n">
+      <c r="O7" s="23">
         <v>34947022</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="20" t="n">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>669240</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="18">
         <v>958972</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="18">
         <v>1140131</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="18">
         <v>1254168</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="18">
         <v>1213247</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="18">
         <v>16459267</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="18">
         <v>6636568</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="18">
         <v>3710575</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="18">
         <v>2179308</v>
       </c>
-      <c r="M8" s="18" t="n">
+      <c r="M8" s="18">
         <v>1076772</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="23" t="n">
+      <c r="O8" s="23">
         <v>35298248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="20" t="n">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>713565</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="18">
         <v>984417</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="18">
         <v>1158259</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="18">
         <v>1258607</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="18">
         <v>1216986</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="18">
         <v>16759109</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="18">
         <v>6649627</v>
       </c>
-      <c r="K9" s="18" t="n">
+      <c r="K9" s="18">
         <v>3730523</v>
       </c>
-      <c r="L9" s="18" t="n">
+      <c r="L9" s="18">
         <v>2095411</v>
       </c>
-      <c r="M9" s="18" t="n">
+      <c r="M9" s="18">
         <v>1076178</v>
       </c>
       <c r="N9" s="18"/>
-      <c r="O9" s="23" t="n">
+      <c r="O9" s="23">
         <v>35642682</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="n">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21">
         <v>816823</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="18">
         <v>1041188</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="18">
         <v>1195923</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="18">
         <v>1276637</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="18">
         <v>1219546</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="18">
         <v>16896853</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="18">
         <v>6748627</v>
       </c>
-      <c r="K10" s="18" t="n">
+      <c r="K10" s="18">
         <v>3664806</v>
       </c>
-      <c r="L10" s="18" t="n">
+      <c r="L10" s="18">
         <v>2086004</v>
       </c>
-      <c r="M10" s="18" t="n">
+      <c r="M10" s="18">
         <v>1088909</v>
       </c>
       <c r="N10" s="18"/>
-      <c r="O10" s="23" t="n">
+      <c r="O10" s="23">
         <v>36035316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="20" t="n">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>16</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>1059084</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="18">
         <v>1211049</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="18">
         <v>1250495</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="18">
         <v>1299285</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="18">
         <v>1229233</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="18">
         <v>17976485</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="18">
         <v>7506634</v>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="18">
         <v>3803559</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="18">
         <v>2117708</v>
       </c>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="18">
         <v>1080472</v>
       </c>
       <c r="N11" s="18"/>
-      <c r="O11" s="23" t="n">
+      <c r="O11" s="23">
         <v>38534004</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="A12" s="20" t="n">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
         <v>32</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>1762134</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="18">
         <v>1555540</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="18">
         <v>1475183</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="18">
         <v>1331121</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="18">
         <v>1241427</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="18">
         <v>21253109</v>
       </c>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="18">
         <v>8553396</v>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="18">
         <v>4134594</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="18">
         <v>2132215</v>
       </c>
-      <c r="M12" s="18" t="n">
+      <c r="M12" s="18">
         <v>1089107</v>
       </c>
       <c r="N12" s="18"/>
-      <c r="O12" s="23" t="n">
+      <c r="O12" s="23">
         <v>44527826</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="20" t="n">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>64</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="18">
         <v>2311832</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="18">
         <v>1761397</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="18">
         <v>1433157</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="18">
         <v>1269569</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="18" t="n">
+      <c r="J13" s="18">
         <v>10185216</v>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="18">
         <v>4803898</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="18">
         <v>2418541</v>
       </c>
-      <c r="M13" s="18" t="n">
+      <c r="M13" s="18">
         <v>1131626</v>
       </c>
       <c r="N13" s="18"/>
-      <c r="O13" s="23" t="n">
+      <c r="O13" s="23">
         <v>25315236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="A14" s="20" t="n">
+    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
         <v>128</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="18">
         <v>2510488</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="18">
         <v>1666407</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="18">
         <v>1342187</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="18">
         <v>5959799</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="18">
         <v>2576031</v>
       </c>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="18">
         <v>1249106</v>
       </c>
       <c r="N14" s="18"/>
-      <c r="O14" s="23" t="n">
+      <c r="O14" s="23">
         <v>15304018</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="20" t="n">
+    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <v>256</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="25">
         <v>2232056</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="25">
         <v>1538509</v>
       </c>
       <c r="G15" s="26"/>
@@ -5757,67 +6938,66 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="18">
         <v>3065228</v>
       </c>
-      <c r="M15" s="18" t="n">
+      <c r="M15" s="18">
         <v>1479130</v>
       </c>
       <c r="N15" s="18"/>
-      <c r="O15" s="27" t="n">
+      <c r="O15" s="27">
         <v>8314923</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="29">
         <v>6280855</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="30">
         <v>9924386</v>
       </c>
-      <c r="D16" s="30" t="n">
+      <c r="D16" s="30">
         <v>12762036</v>
       </c>
-      <c r="E16" s="30" t="n">
+      <c r="E16" s="30">
         <v>14254278</v>
       </c>
-      <c r="F16" s="30" t="n">
+      <c r="F16" s="30">
         <v>12704798</v>
       </c>
-      <c r="G16" s="31" t="n">
+      <c r="G16" s="31">
         <v>1384022</v>
       </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="29" t="n">
+      <c r="I16" s="29">
         <v>121458565</v>
       </c>
-      <c r="J16" s="30" t="n">
+      <c r="J16" s="30">
         <v>59009116</v>
       </c>
-      <c r="K16" s="30" t="n">
+      <c r="K16" s="30">
         <v>37055543</v>
       </c>
-      <c r="L16" s="30" t="n">
+      <c r="L16" s="30">
         <v>22919676</v>
       </c>
-      <c r="M16" s="30" t="n">
+      <c r="M16" s="30">
         <v>11449268</v>
       </c>
-      <c r="N16" s="31" t="n">
+      <c r="N16" s="31">
         <v>804370</v>
       </c>
-      <c r="O16" s="32" t="n">
+      <c r="O16" s="32">
         <v>310006913</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5826,26 +7006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L1" activeCellId="0" pane="topLeft" sqref="L1"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="11.6745098039216"/>
+    <col min="1" max="257" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +7054,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -5907,399 +7085,399 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" s="12" t="n">
+      <c r="F5" s="12">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12">
         <v>16</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="12">
         <v>32</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="12">
         <v>64</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="12">
         <v>128</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="12">
         <v>256</v>
       </c>
       <c r="L5" s="12"/>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="12">
         <v>1</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="12">
         <v>2</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="12">
         <v>4</v>
       </c>
-      <c r="Q5" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="R5" s="12" t="n">
+      <c r="Q5" s="12">
+        <v>8</v>
+      </c>
+      <c r="R5" s="12">
         <v>16</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="12">
         <v>32</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="12">
         <v>64</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="12">
         <v>128</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="12">
         <v>256</v>
       </c>
       <c r="W5" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="14" t="n">
+    <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>128</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="15">
         <v>616041</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="16">
         <v>643968</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="16">
         <v>669240</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="16">
         <v>713565</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="16">
         <v>816823</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="16">
         <v>1059084</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="16">
         <v>1762134</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="18" t="n">
+      <c r="M6" s="18">
         <v>15861501</v>
       </c>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="18">
         <v>16252241</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="18">
         <v>16459267</v>
       </c>
-      <c r="P6" s="18" t="n">
+      <c r="P6" s="18">
         <v>16759109</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="18">
         <v>16896853</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="18">
         <v>17976485</v>
       </c>
-      <c r="S6" s="18" t="n">
+      <c r="S6" s="18">
         <v>21253109</v>
       </c>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
-      <c r="W6" s="19" t="n">
+      <c r="W6" s="19">
         <v>127739420</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="20" t="n">
+    <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>256</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>922925</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="18">
         <v>938463</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="18">
         <v>958972</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="18">
         <v>984417</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="18">
         <v>1041188</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="18">
         <v>1211049</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="18">
         <v>1555540</v>
       </c>
-      <c r="I7" s="18" t="n">
+      <c r="I7" s="18">
         <v>2311832</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="18" t="n">
+      <c r="M7" s="18">
         <v>6170783</v>
       </c>
-      <c r="N7" s="18" t="n">
+      <c r="N7" s="18">
         <v>6558265</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="18">
         <v>6636568</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="18">
         <v>6649627</v>
       </c>
-      <c r="Q7" s="18" t="n">
+      <c r="Q7" s="18">
         <v>6748627</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="18">
         <v>7506634</v>
       </c>
-      <c r="S7" s="18" t="n">
+      <c r="S7" s="18">
         <v>8553396</v>
       </c>
-      <c r="T7" s="18" t="n">
+      <c r="T7" s="18">
         <v>10185216</v>
       </c>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
-      <c r="W7" s="23" t="n">
+      <c r="W7" s="23">
         <v>68933502</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="20" t="n">
+    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
         <v>512</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>1131070</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="18">
         <v>1139090</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="18">
         <v>1140131</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="18">
         <v>1158259</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="18">
         <v>1195923</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="18">
         <v>1250495</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="18">
         <v>1475183</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="18">
         <v>1761397</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="18">
         <v>2510488</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="18" t="n">
+      <c r="M8" s="18">
         <v>3560870</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="18">
         <v>3686919</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="18">
         <v>3710575</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="18">
         <v>3730523</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="18">
         <v>3664806</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="18">
         <v>3803559</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="18">
         <v>4134594</v>
       </c>
-      <c r="T8" s="18" t="n">
+      <c r="T8" s="18">
         <v>4803898</v>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="18">
         <v>5959799</v>
       </c>
       <c r="V8" s="18"/>
-      <c r="W8" s="23" t="n">
+      <c r="W8" s="23">
         <v>49817579</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="20" t="n">
+    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <v>1024</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>1249526</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="18">
         <v>1253314</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="18">
         <v>1254168</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="18">
         <v>1258607</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="18">
         <v>1276637</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="18">
         <v>1299285</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="18">
         <v>1331121</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="18">
         <v>1433157</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="18">
         <v>1666407</v>
       </c>
-      <c r="K9" s="22" t="n">
+      <c r="K9" s="22">
         <v>2232056</v>
       </c>
       <c r="L9" s="22"/>
-      <c r="M9" s="18" t="n">
+      <c r="M9" s="18">
         <v>2071270</v>
       </c>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="18">
         <v>2177960</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="18">
         <v>2179308</v>
       </c>
-      <c r="P9" s="18" t="n">
+      <c r="P9" s="18">
         <v>2095411</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="18">
         <v>2086004</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="18">
         <v>2117708</v>
       </c>
-      <c r="S9" s="18" t="n">
+      <c r="S9" s="18">
         <v>2132215</v>
       </c>
-      <c r="T9" s="18" t="n">
+      <c r="T9" s="18">
         <v>2418541</v>
       </c>
-      <c r="U9" s="18" t="n">
+      <c r="U9" s="18">
         <v>2576031</v>
       </c>
-      <c r="V9" s="18" t="n">
+      <c r="V9" s="18">
         <v>3065228</v>
       </c>
-      <c r="W9" s="23" t="n">
+      <c r="W9" s="23">
         <v>37173954</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="20" t="n">
+    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
         <v>2048</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>1216664</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="18">
         <v>1217430</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="18">
         <v>1213247</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="18">
         <v>1216986</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="18">
         <v>1219546</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="18">
         <v>1229233</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="18">
         <v>1241427</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="18">
         <v>1269569</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="18">
         <v>1342187</v>
       </c>
-      <c r="K10" s="22" t="n">
+      <c r="K10" s="22">
         <v>1538509</v>
       </c>
       <c r="L10" s="22"/>
-      <c r="M10" s="18" t="n">
+      <c r="M10" s="18">
         <v>1098596</v>
       </c>
-      <c r="N10" s="18" t="n">
+      <c r="N10" s="18">
         <v>1079372</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="18">
         <v>1076772</v>
       </c>
-      <c r="P10" s="18" t="n">
+      <c r="P10" s="18">
         <v>1076178</v>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="18">
         <v>1088909</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="18">
         <v>1080472</v>
       </c>
-      <c r="S10" s="18" t="n">
+      <c r="S10" s="18">
         <v>1089107</v>
       </c>
-      <c r="T10" s="18" t="n">
+      <c r="T10" s="18">
         <v>1131626</v>
       </c>
-      <c r="U10" s="18" t="n">
+      <c r="U10" s="18">
         <v>1249106</v>
       </c>
-      <c r="V10" s="18" t="n">
+      <c r="V10" s="18">
         <v>1479130</v>
       </c>
-      <c r="W10" s="23" t="n">
+      <c r="W10" s="23">
         <v>24154066</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="20" t="n">
+    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>4096</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="24">
         <v>1384022</v>
       </c>
       <c r="C11" s="25"/>
@@ -6312,7 +7490,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="18">
         <v>804370</v>
       </c>
       <c r="N11" s="18"/>
@@ -6324,84 +7502,83 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="27" t="n">
+      <c r="W11" s="27">
         <v>2188392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29" t="n">
+      <c r="B12" s="29">
         <v>6520248</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="30">
         <v>5192265</v>
       </c>
-      <c r="D12" s="30" t="n">
+      <c r="D12" s="30">
         <v>5235758</v>
       </c>
-      <c r="E12" s="30" t="n">
+      <c r="E12" s="30">
         <v>5331834</v>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="30">
         <v>5550117</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G12" s="30">
         <v>6049146</v>
       </c>
-      <c r="H12" s="30" t="n">
+      <c r="H12" s="30">
         <v>7365405</v>
       </c>
-      <c r="I12" s="30" t="n">
+      <c r="I12" s="30">
         <v>6775955</v>
       </c>
-      <c r="J12" s="30" t="n">
+      <c r="J12" s="30">
         <v>5519082</v>
       </c>
-      <c r="K12" s="31" t="n">
+      <c r="K12" s="31">
         <v>3770565</v>
       </c>
       <c r="L12" s="31"/>
-      <c r="M12" s="29" t="n">
+      <c r="M12" s="29">
         <v>29567390</v>
       </c>
-      <c r="N12" s="30" t="n">
+      <c r="N12" s="30">
         <v>29754757</v>
       </c>
-      <c r="O12" s="30" t="n">
+      <c r="O12" s="30">
         <v>30062490</v>
       </c>
-      <c r="P12" s="30" t="n">
+      <c r="P12" s="30">
         <v>30310848</v>
       </c>
-      <c r="Q12" s="30" t="n">
+      <c r="Q12" s="30">
         <v>30485199</v>
       </c>
-      <c r="R12" s="30" t="n">
+      <c r="R12" s="30">
         <v>32484858</v>
       </c>
-      <c r="S12" s="30" t="n">
+      <c r="S12" s="30">
         <v>37162421</v>
       </c>
-      <c r="T12" s="30" t="n">
+      <c r="T12" s="30">
         <v>18539281</v>
       </c>
-      <c r="U12" s="30" t="n">
+      <c r="U12" s="30">
         <v>9784936</v>
       </c>
-      <c r="V12" s="31" t="n">
+      <c r="V12" s="31">
         <v>4544358</v>
       </c>
-      <c r="W12" s="32" t="n">
+      <c r="W12" s="32">
         <v>310006913</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
